--- a/Spreadsheets/PQ-BC_stats.xlsx
+++ b/Spreadsheets/PQ-BC_stats.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madeleineseitz/Desktop/thesis/ABCD_Project/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A52C59-F750-7547-8375-4E261411E34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD146C86-5210-CE4F-A267-9E97BA910F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="780" windowWidth="30700" windowHeight="21360" activeTab="2" xr2:uid="{3903D45E-C70F-CE4C-84EC-DC1297110626}"/>
+    <workbookView xWindow="700" yWindow="780" windowWidth="30700" windowHeight="21360" activeTab="3" xr2:uid="{3903D45E-C70F-CE4C-84EC-DC1297110626}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
     <sheet name="T1" sheetId="2" r:id="rId2"/>
-    <sheet name="T2" sheetId="3" r:id="rId3"/>
-    <sheet name="T3" sheetId="4" r:id="rId4"/>
+    <sheet name="T2 (bother)" sheetId="3" r:id="rId3"/>
+    <sheet name="T2 (endorsed)" sheetId="6" r:id="rId4"/>
+    <sheet name="T3" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="130">
   <si>
     <t>bother threshold count</t>
   </si>
@@ -336,6 +337,99 @@
   </si>
   <si>
     <t>T3 LR count (4+ pqbc bother)</t>
+  </si>
+  <si>
+    <t>PQ-BC endorsed threshold count</t>
+  </si>
+  <si>
+    <t>endorsed 1+</t>
+  </si>
+  <si>
+    <t>endorsed 1</t>
+  </si>
+  <si>
+    <t>endorsed 2+</t>
+  </si>
+  <si>
+    <t>endorsed 2</t>
+  </si>
+  <si>
+    <t>endorsed 3+</t>
+  </si>
+  <si>
+    <t>endorsed 3</t>
+  </si>
+  <si>
+    <t>endorsed 4+</t>
+  </si>
+  <si>
+    <t>endorsed 4</t>
+  </si>
+  <si>
+    <t>endorsed 5+</t>
+  </si>
+  <si>
+    <t>endorsed 5</t>
+  </si>
+  <si>
+    <t>Group continuity between Baseline and T1</t>
+  </si>
+  <si>
+    <t>Baseline HR count (4+ PQ-BC endorsed)</t>
+  </si>
+  <si>
+    <t>Baseline LR count (4+ PQ-BC endorsed)</t>
+  </si>
+  <si>
+    <t>T1 HR count (4+ PQ-BC endorsed)</t>
+  </si>
+  <si>
+    <t>T1 LR count (4+ PQ-BC endorsed)</t>
+  </si>
+  <si>
+    <t>38.6% of BL HR group stayed HR at T1</t>
+  </si>
+  <si>
+    <t>6.82% of BL HR dropped out before T1</t>
+  </si>
+  <si>
+    <t>87.12% of BL LR group stayed LR at T1</t>
+  </si>
+  <si>
+    <t>5.11% of BL LR dropped out before T1</t>
+  </si>
+  <si>
+    <t>T2 HR count (4+ PQ-BC endorsed)</t>
+  </si>
+  <si>
+    <t>T2 LR count (4+ PQ-BC endorsed)</t>
+  </si>
+  <si>
+    <t>37.43% of T1 HR group stayed HR at T2</t>
+  </si>
+  <si>
+    <t>84.99% of T1 LR group stayed LR at T2</t>
+  </si>
+  <si>
+    <t>8.91% of T1 LR dropped out before T2</t>
+  </si>
+  <si>
+    <t>T3 HR count (4+ PQ-BC endorsed)</t>
+  </si>
+  <si>
+    <t>T3 LR count (4+ PQ-BC endorsed)</t>
+  </si>
+  <si>
+    <t>20.02% of T2 HR group stayed HR at T3</t>
+  </si>
+  <si>
+    <t>43.08% of T2 HR dropped out before T3</t>
+  </si>
+  <si>
+    <t>56.79% of T2 LR group stayed LR at T3</t>
+  </si>
+  <si>
+    <t>40.72% of T2 LR dropped out before T3</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5AD535-0200-F84E-B6CA-438C4341F914}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -2144,7 +2238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B653992-E895-7E4D-A48F-4D25BD2E0016}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -2811,6 +2905,676 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A93DAED-9A68-5848-ADB1-B6F3098698F2}">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="11" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3537</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1163</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2374</v>
+      </c>
+      <c r="E2" s="6">
+        <v>653</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1721</v>
+      </c>
+      <c r="G2" s="7">
+        <v>442</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1279</v>
+      </c>
+      <c r="I2" s="8">
+        <v>304</v>
+      </c>
+      <c r="J2" s="4">
+        <v>975</v>
+      </c>
+      <c r="K2" s="9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.6380999999999999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.38869999999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.2502</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.8106</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.2579</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3.3471000000000002</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1.7992999999999999</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3.8296999999999999</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2.1315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.5785</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.8415999999999997</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.9198000000000004</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>6.9288999999999996</v>
+      </c>
+      <c r="I4" s="8">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7.8421000000000003</v>
+      </c>
+      <c r="K4" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1741</v>
+      </c>
+      <c r="C5" s="5">
+        <v>160</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1581</v>
+      </c>
+      <c r="E5" s="6">
+        <v>242</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1339</v>
+      </c>
+      <c r="G5" s="7">
+        <v>228</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1111</v>
+      </c>
+      <c r="I5" s="8">
+        <v>201</v>
+      </c>
+      <c r="J5" s="4">
+        <v>910</v>
+      </c>
+      <c r="K5" s="9">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.8891</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.9791000000000001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.0785</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.1419000000000001</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1.2237</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.3302999999999998</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2.5341</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1.619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>900</v>
+      </c>
+      <c r="C7" s="5">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4">
+        <v>849</v>
+      </c>
+      <c r="E7" s="6">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4">
+        <v>779</v>
+      </c>
+      <c r="G7" s="7">
+        <v>83</v>
+      </c>
+      <c r="H7" s="4">
+        <v>696</v>
+      </c>
+      <c r="I7" s="8">
+        <v>98</v>
+      </c>
+      <c r="J7" s="4">
+        <v>598</v>
+      </c>
+      <c r="K7" s="9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.5066999999999999</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.5370999999999999</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.0286</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.5828</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.0364</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.1939</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.7223999999999999</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1.1442000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.1376</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.3997</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.6665000000000001</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.36120000000000002</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2.0242</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2.3651</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1.3546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.38340000000000002</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.439</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.54969999999999997</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.1103</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.1946</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1.0564</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.47410000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2596</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.2185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9280</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.78139999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1723</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.1535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9502</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.84650000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>177</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8085</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1">
+        <v>474</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1723</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.1535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9502</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.84650000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1279</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.12280000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9133</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.87719999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1">
+        <v>645</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1">
+        <v>194</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8076</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="1">
+        <v>847</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1279</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.12280000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9133</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0.87719999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="1">
+        <v>503</v>
+      </c>
+      <c r="C39" s="13">
+        <v>8.0500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5748</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.91949999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1">
+        <v>256</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="1">
+        <v>551</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5187</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3719</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232870F1-02F1-5D49-9D17-52FA601F56E2}">
   <dimension ref="A1:K12"/>
   <sheetViews>
